--- a/daily_app_Deerwalk_learning_center.xlsx
+++ b/daily_app_Deerwalk_learning_center.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -25,13 +25,46 @@
     <t>RealInstalls</t>
   </si>
   <si>
-    <t>AverageRating</t>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>PositiveReview</t>
+  </si>
+  <si>
+    <t>NegativeReview</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
   <si>
     <t>2025-08-15</t>
   </si>
   <si>
     <t>Deerwalk Learning Center</t>
+  </si>
+  <si>
+    <t>2025-08-16</t>
+  </si>
+  <si>
+    <t>No rating</t>
+  </si>
+  <si>
+    <t>nice app but the lessons are too short | Really great app but it doesn't include opt math | So good for learning</t>
+  </si>
+  <si>
+    <t>2025-08-17</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>10:40:18</t>
+  </si>
+  <si>
+    <t>2025-08-19</t>
+  </si>
+  <si>
+    <t>08:46:50</t>
   </si>
 </sst>
 </file>
@@ -424,7 +457,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -434,6 +467,9 @@
     <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -449,18 +485,110 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4">
         <v>272</v>
       </c>
       <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>291</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>294</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>301</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>315</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
